--- a/bbb_4/lcsc/BOM_BBB_4v1_other_parts.xlsx
+++ b/bbb_4/lcsc/BOM_BBB_4v1_other_parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_4/lcsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC1E95E-14A5-144E-A5E7-3FE64CBA1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED00A03-8D34-5645-864D-E39B84A752E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="8680" windowWidth="27640" windowHeight="16940" xr2:uid="{F89C742B-CFF0-414C-8C06-F224FA803385}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
@@ -677,7 +677,7 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
@@ -700,7 +700,7 @@
         <v>56</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -723,7 +723,7 @@
         <v>52</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -746,7 +746,7 @@
         <v>48</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -769,7 +769,7 @@
         <v>43</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -812,7 +812,7 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -835,7 +835,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -858,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -904,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -970,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>

--- a/bbb_4/lcsc/BOM_BBB_4v1_other_parts.xlsx
+++ b/bbb_4/lcsc/BOM_BBB_4v1_other_parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_4/lcsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED00A03-8D34-5645-864D-E39B84A752E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C902D5-EB82-F445-87A3-B1F36BF47238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="8680" windowWidth="27640" windowHeight="16940" xr2:uid="{F89C742B-CFF0-414C-8C06-F224FA803385}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>C2935996</t>
   </si>
@@ -255,6 +255,24 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>C440858</t>
+  </si>
+  <si>
+    <t>Cixi Kefa Elec KF2EDGK-3.81-2P</t>
+  </si>
+  <si>
+    <t>KF2EDGK-3.81-2P</t>
+  </si>
+  <si>
+    <t>C72124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNFLY Elec DS1009-08AT1NX-0A2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1009-08AT1NX-0A2 </t>
   </si>
 </sst>
 </file>
@@ -606,18 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48388C5A-7D29-0245-B459-4266B82EAC37}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,6 +1000,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
